--- a/YouTubeScrapper_language learning.xlsx
+++ b/YouTubeScrapper_language learning.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>channelName</t>
   </si>
@@ -28,71 +28,1038 @@
     <t>channel_url</t>
   </si>
   <si>
+    <t>Monce Perez</t>
+  </si>
+  <si>
+    <t>106015</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCH8YAZ9l_N8_7NcdHP_svXQ</t>
+  </si>
+  <si>
+    <t>Sprouts</t>
+  </si>
+  <si>
+    <t>85654470</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-RKpEc4eE9PwJaupN91xYQ</t>
+  </si>
+  <si>
+    <t>Real Fast Spanish</t>
+  </si>
+  <si>
+    <t>1283187</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCci5vozsm2-46a-WxIwjd5A</t>
+  </si>
+  <si>
+    <t>Sabbatical</t>
+  </si>
+  <si>
+    <t>47071981</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCib80j_q5o_C5XsCA9YsAFg</t>
+  </si>
+  <si>
+    <t>Learn French with FrenchPod101.com</t>
+  </si>
+  <si>
+    <t>53557975</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHk14TRSD33vAyx5xKzpcnw</t>
+  </si>
+  <si>
+    <t>One Minute Explore</t>
+  </si>
+  <si>
+    <t>1212189</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-CY9zpVm2vOcie6RLOdtSA</t>
+  </si>
+  <si>
+    <t>Mark Rounds</t>
+  </si>
+  <si>
+    <t>1183431</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC_8uLU_vV8sj8BigbsXh9CQ</t>
+  </si>
+  <si>
+    <t>Language Lords</t>
+  </si>
+  <si>
+    <t>2007106</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCNM6XOXcQfs-N1XuLAe2zuA</t>
+  </si>
+  <si>
+    <t>Alexander Arguelles</t>
+  </si>
+  <si>
+    <t>6946769</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCRGtDF5VAywUVwgT51Ud6OQ</t>
+  </si>
+  <si>
+    <t>Edutopia</t>
+  </si>
+  <si>
+    <t>43208355</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCdksaQxXH13BMeHo09MorBg</t>
+  </si>
+  <si>
+    <t>Ruri Ohama</t>
+  </si>
+  <si>
+    <t>20966453</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKtiMrNZq0gGbPTnsMu7Bsw</t>
+  </si>
+  <si>
+    <t>Seeker</t>
+  </si>
+  <si>
+    <t>1258567446</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzWQYUVCpZqtN93H8RR44Qw</t>
+  </si>
+  <si>
+    <t>The Bliss Bean</t>
+  </si>
+  <si>
+    <t>15033996</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnlA6utKwEkshWt_fJavl8Q</t>
+  </si>
+  <si>
+    <t>Leonie Sii</t>
+  </si>
+  <si>
+    <t>4775532</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6jlGUNj69pxZm-UdgtIcFA</t>
+  </si>
+  <si>
+    <t>DYCE QUIRK</t>
+  </si>
+  <si>
+    <t>664050</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCvUd7aUYuwuegAjzNnxkNCQ</t>
+  </si>
+  <si>
+    <t>Jerry Registre</t>
+  </si>
+  <si>
+    <t>227415</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMwFxEFgl3M4BACjtHeXpYA</t>
+  </si>
+  <si>
+    <t>CECE Early Childhood Videos at Eastern CT State U.</t>
+  </si>
+  <si>
+    <t>4227880</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmPfoBQuoI_sPfOpr0WzH9Q</t>
+  </si>
+  <si>
+    <t>Babbel</t>
+  </si>
+  <si>
+    <t>52428184</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC1cyg1VSTs0LDarTxDEHMdQ</t>
+  </si>
+  <si>
+    <t>Lina Vasquez</t>
+  </si>
+  <si>
+    <t>1961370</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UClZjE2TEk59ZbxH_hZiBkog</t>
+  </si>
+  <si>
+    <t>Kseniya International</t>
+  </si>
+  <si>
+    <t>799688</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuZ0npO9xy-8_Mkb6Y3swbA</t>
+  </si>
+  <si>
+    <t>Victoria Lim</t>
+  </si>
+  <si>
+    <t>877426</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7SdG19xtUUo69hmyeQxy-Q</t>
+  </si>
+  <si>
+    <t>laoshu505000</t>
+  </si>
+  <si>
+    <t>205383546</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCbRaUB7Hfe3clmKqqj8Nm1Q</t>
+  </si>
+  <si>
+    <t>Steve Kaufmann - lingosteve</t>
+  </si>
+  <si>
+    <t>31452971</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCez-2shYlHQY3LfILBuDYqQ</t>
+  </si>
+  <si>
+    <t>Giovanni Smith</t>
+  </si>
+  <si>
+    <t>153078</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCK9lNvd1cWhc58HSzEXeB6Q</t>
+  </si>
+  <si>
+    <t>ColeLangs</t>
+  </si>
+  <si>
+    <t>1691024</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsMpVWATEEON-9A0ac64lfQ</t>
+  </si>
+  <si>
+    <t>What I've Learned</t>
+  </si>
+  <si>
+    <t>191390607</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqYPhGiB9tkShZorfgcL2lA</t>
+  </si>
+  <si>
+    <t>Phoenix Hou</t>
+  </si>
+  <si>
+    <t>4887813</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqLqngg7htY6Pol4ZBJKwHA</t>
+  </si>
+  <si>
+    <t>anna lenks</t>
+  </si>
+  <si>
+    <t>18298968</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJZrgdE18ZCUKRBNEqeoOjA</t>
+  </si>
+  <si>
+    <t>TechGumbo</t>
+  </si>
+  <si>
+    <t>216433860</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCaSM4GqhbaVmRT7fmmFmR1w</t>
+  </si>
+  <si>
+    <t>linguamarina</t>
+  </si>
+  <si>
+    <t>445996169</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAQg09FkoobmLquNNoO4ulg</t>
+  </si>
+  <si>
+    <t>5-Minute Language</t>
+  </si>
+  <si>
+    <t>3067859</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC3ZTQ-6i0cwY6AeHH1lzVUw</t>
+  </si>
+  <si>
+    <t>White Eagle</t>
+  </si>
+  <si>
+    <t>2211335</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJCVdCYoWa3bVc721dLHv9w</t>
+  </si>
+  <si>
+    <t>Phương Thúy</t>
+  </si>
+  <si>
+    <t>1290154</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-Migq_x95EIvhAny34xf8w</t>
+  </si>
+  <si>
+    <t>Elysse Speaks</t>
+  </si>
+  <si>
+    <t>3787941</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCr_fqYBYxZLzo2DiyB2do-A</t>
+  </si>
+  <si>
+    <t>TED-Ed</t>
+  </si>
+  <si>
+    <t>3245256465</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsooa4yRKGN_zEE8iknghZA</t>
+  </si>
+  <si>
+    <t>Language Simp</t>
+  </si>
+  <si>
+    <t>84875438</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCYNyKRHBzd7UPRUtDhofUKg</t>
+  </si>
+  <si>
     <t>TEDx Talks</t>
   </si>
   <si>
-    <t>35400000</t>
-  </si>
-  <si>
-    <t>6547488955</t>
+    <t>6550235795</t>
   </si>
   <si>
     <t>https://www.youtube.com/channel/UCsT0YIqwnpJCM-mx7-gSA4Q</t>
   </si>
   <si>
+    <t>TuTiTuTV</t>
+  </si>
+  <si>
+    <t>4864968065</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCeUYwh-WiIoG47ECQvQxKsA</t>
+  </si>
+  <si>
+    <t>Level Up English</t>
+  </si>
+  <si>
+    <t>2206314</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzHkx1S-mThmadtRi0qlIYw</t>
+  </si>
+  <si>
+    <t>Shea Jordan</t>
+  </si>
+  <si>
+    <t>3560170</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCSI9LMlGq2eKMlDdMLZ4THg</t>
+  </si>
+  <si>
+    <t>Duolingo</t>
+  </si>
+  <si>
+    <t>41827755</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCG98ruDeyp55THxbpBCIv3g</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>245567766</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-EnprmCZ3OXyAoG7vjVNCA</t>
+  </si>
+  <si>
+    <t>Stanford HAI</t>
+  </si>
+  <si>
+    <t>260306</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UChugFTK0KyrES9terTid8vA</t>
+  </si>
+  <si>
+    <t>Girl vs Globe</t>
+  </si>
+  <si>
+    <t>8070943</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCz2LI2_XL-qi0EtdvhS0X7g</t>
+  </si>
+  <si>
+    <t>Faline San</t>
+  </si>
+  <si>
+    <t>52660377</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCVLw9wKPHxdBbboXEduN5jA</t>
+  </si>
+  <si>
+    <t>Lindie Botes</t>
+  </si>
+  <si>
+    <t>28359231</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjVwBKqRh8ckPWhfD5UDKcg</t>
+  </si>
+  <si>
+    <t>Arije-Aike de Haas</t>
+  </si>
+  <si>
+    <t>1926511</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC65Mimz3oyWA8NtpO_zQBVQ</t>
+  </si>
+  <si>
+    <t>Anthony Metivier</t>
+  </si>
+  <si>
+    <t>3712121</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCdIwC3d4CRjrrQdaqZaNBpA</t>
+  </si>
+  <si>
+    <t>Canguro English</t>
+  </si>
+  <si>
+    <t>15773313</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCr2TgqpOrU3kUTkVy5XoLow</t>
+  </si>
+  <si>
+    <t>Learn German with GermanPod101.com</t>
+  </si>
+  <si>
+    <t>33873007</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCTobWZV_HWGSoaRrhHyrJ-A</t>
+  </si>
+  <si>
+    <t>Johnny Harris</t>
+  </si>
+  <si>
+    <t>187745475</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmGSJVG3mCRXVOP4yZrU1Dw</t>
+  </si>
+  <si>
+    <t>Mango Languages</t>
+  </si>
+  <si>
+    <t>1359147</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzI2R1PIUnNTe2_x59L0sBQ</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>4825759</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC5R7KvzToSrlR8cas9b9kgA</t>
+  </si>
+  <si>
+    <t>The Ling Space</t>
+  </si>
+  <si>
+    <t>3013408</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCdZcGRaBV-VRRyU4t6Ur0mw</t>
+  </si>
+  <si>
+    <t>Natalia Garza</t>
+  </si>
+  <si>
+    <t>5983242</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCv3ptHlv--3v7NXu9Bm9GUw</t>
+  </si>
+  <si>
+    <t>Olly Richards</t>
+  </si>
+  <si>
+    <t>19920992</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCSSLq4KYuztsj6ch2RbqoIg</t>
+  </si>
+  <si>
+    <t>Language Learners Español</t>
+  </si>
+  <si>
+    <t>2806973</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCPtNQbM6N0tzc-E-wgq_KWA</t>
+  </si>
+  <si>
+    <t>VIRTUALLY NATIVE</t>
+  </si>
+  <si>
+    <t>2820201</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjKBcnysxc_hV1xNnormeDw</t>
+  </si>
+  <si>
+    <t>Global Marissa</t>
+  </si>
+  <si>
+    <t>58465</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCENHwjTptE-I6PTAmymYrLw</t>
+  </si>
+  <si>
+    <t>Language of Earth</t>
+  </si>
+  <si>
+    <t>30554584</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCowY3YnF1GXivULgbtYgQGw</t>
+  </si>
+  <si>
+    <t>Million Dollar Habit</t>
+  </si>
+  <si>
+    <t>272690</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCLjx8fRBAh6_7tpm5p9HfiA</t>
+  </si>
+  <si>
+    <t>Unbabel</t>
+  </si>
+  <si>
+    <t>279287</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJt2CdzySpx3OiW-kzDapIw</t>
+  </si>
+  <si>
+    <t>Learn Spanish with SpanishPod101.com</t>
+  </si>
+  <si>
+    <t>46429254</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCydVvh3Wg4VPvllLHFoe5_A</t>
+  </si>
+  <si>
+    <t>Poly-glot-a-lot</t>
+  </si>
+  <si>
+    <t>3245118</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCVce_tYDVUSv_D2N2MzqaRA</t>
+  </si>
+  <si>
+    <t>Real Russian Club</t>
+  </si>
+  <si>
+    <t>23102335</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyJznKYS9kkP7RWWq3YAbFw</t>
+  </si>
+  <si>
+    <t>Learn English with EnglishClass101.com</t>
+  </si>
+  <si>
+    <t>311321086</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCeTVoczn9NOZA9blls3YgUg</t>
+  </si>
+  <si>
+    <t>WatchData</t>
+  </si>
+  <si>
+    <t>681618078</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCL2hOcfXAxD44bGz0JIf-dA</t>
+  </si>
+  <si>
+    <t>Robin MacPherson</t>
+  </si>
+  <si>
+    <t>2935862</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC5wbKd54tG-juXnoSbTApCQ</t>
+  </si>
+  <si>
+    <t>CrashCourse</t>
+  </si>
+  <si>
+    <t>1690334422</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCX6b17PVsYBQ0ip5gyeme-Q</t>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>2349785170</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAuUUnT6oDeKwE6v1NGQxug</t>
+  </si>
+  <si>
+    <t>Ikenna</t>
+  </si>
+  <si>
+    <t>54146340</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCem5o3ugCFodmrO7EmhtJ0A</t>
+  </si>
+  <si>
+    <t>Emma Angeline</t>
+  </si>
+  <si>
+    <t>4667832</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCOHHv4n7SuWIj5LvSLN4p9w</t>
+  </si>
+  <si>
+    <t>Xiaomanyc 小马在纽约</t>
+  </si>
+  <si>
+    <t>732240647</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCLNoXf8gq6vhwsrYp-l0J-Q</t>
+  </si>
+  <si>
+    <t>Just Teach (by Little Mary)</t>
+  </si>
+  <si>
+    <t>197313</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzoo-ZAktZ9TMFln2cYndQg</t>
+  </si>
+  <si>
+    <t>seemile Korean</t>
+  </si>
+  <si>
+    <t>103072405</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKIicR8VM3HczwmJM9UxtTw</t>
+  </si>
+  <si>
+    <t>Guresu</t>
+  </si>
+  <si>
+    <t>1296927</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCwxRLYm6au5Nn01sY0-a14A</t>
+  </si>
+  <si>
+    <t>Learn Hindi with HindiPod101.com</t>
+  </si>
+  <si>
+    <t>17191199</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQjj7y-JGGj12vwhIbuz62Q</t>
+  </si>
+  <si>
+    <t>OuinoLanguages</t>
+  </si>
+  <si>
+    <t>15833818</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7ECfEG_pXDn3mRj80jdjjw</t>
+  </si>
+  <si>
+    <t>Polyglot Stories</t>
+  </si>
+  <si>
+    <t>10091577</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQbBZNlMUAIOUZEs4h6uQ5A</t>
+  </si>
+  <si>
+    <t>cafe.studyy</t>
+  </si>
+  <si>
+    <t>15408268</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC5sk65hjSMgO4ZcI05RYhzQ</t>
+  </si>
+  <si>
+    <t>Learn Italian with ItalianPod101.com</t>
+  </si>
+  <si>
+    <t>27169715</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCb5faEH1hEiLaT_aGMBWeBg</t>
+  </si>
+  <si>
+    <t>Lucy Allan</t>
+  </si>
+  <si>
+    <t>3324410</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UClDXrPu_2mBf_UaxW8sPC2A</t>
+  </si>
+  <si>
+    <t>Két Két Store</t>
+  </si>
+  <si>
+    <t>3084005</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCToAtJnBmcCK84of75gI7wA</t>
+  </si>
+  <si>
+    <t>Bee German</t>
+  </si>
+  <si>
+    <t>1037892</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC_jJFn5Da3DFH3BFe5XBEFg</t>
+  </si>
+  <si>
+    <t>MrLingo100</t>
+  </si>
+  <si>
+    <t>9965511</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqvZjojNk9o6-1OKLFDe9CQ</t>
+  </si>
+  <si>
+    <t>MosaLingua</t>
+  </si>
+  <si>
+    <t>4669786</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC1cyqXp83lgxsZhfv5lHyuQ</t>
+  </si>
+  <si>
+    <t>Pick Up Limes</t>
+  </si>
+  <si>
+    <t>221021852</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCq2E1mIwUKMWzCA4liA_XGQ</t>
+  </si>
+  <si>
+    <t>R.C. Waldun</t>
+  </si>
+  <si>
+    <t>7760806</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCafEZMU5s8geb9oIly6xTrg</t>
+  </si>
+  <si>
+    <t>Zoe.languages</t>
+  </si>
+  <si>
+    <t>7254506</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCRAltBg8Fp5c1-RbAXzk4LQ</t>
+  </si>
+  <si>
+    <t>Education Week</t>
+  </si>
+  <si>
+    <t>13688070</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCL-yKZ_kCuKBHyeRfePpvuw</t>
+  </si>
+  <si>
+    <t>Why Not Spanish?</t>
+  </si>
+  <si>
+    <t>12848085</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCIdFcLCIJQ_YMrormG_nU8w</t>
+  </si>
+  <si>
+    <t>Kyle Brandon</t>
+  </si>
+  <si>
+    <t>56066</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJ-18maLOwjRfSPzlcwsOVA</t>
+  </si>
+  <si>
+    <t>American English</t>
+  </si>
+  <si>
+    <t>8118291</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCBQ58amRJh3anfDtob6sBSQ</t>
+  </si>
+  <si>
+    <t>Multilingual Mastery</t>
+  </si>
+  <si>
+    <t>186234</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-3hVTagD4OzDxZkUjaBXFg</t>
+  </si>
+  <si>
+    <t>Coffee Break Languages</t>
+  </si>
+  <si>
+    <t>5506944</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCozZrWPuoNRLl5ArOyJ57sQ</t>
+  </si>
+  <si>
+    <t>Socratica</t>
+  </si>
+  <si>
+    <t>48871175</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCW6TXMZ5Pq6yL6_k5NZ2e0Q</t>
+  </si>
+  <si>
+    <t>Langfocus</t>
+  </si>
+  <si>
+    <t>149220543</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCNhX3WQEkraW3VHPyup8jkQ</t>
+  </si>
+  <si>
+    <t>Days of French 'n' Swedish</t>
+  </si>
+  <si>
+    <t>5330000</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC3_iSRqqZ7DTVlBNd9lv8jA</t>
+  </si>
+  <si>
+    <t>Learn Japanese with JapanesePod101.com</t>
+  </si>
+  <si>
+    <t>790953936</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0ox9NuTHYeRys63yZpBFuA</t>
+  </si>
+  <si>
+    <t>Learn Portuguese with PortuguesePod101.com</t>
+  </si>
+  <si>
+    <t>11732849</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCgF23VqDjioQVQqHUzzSe9g</t>
+  </si>
+  <si>
+    <t>Songs for Littles - Toddler Learning Videos</t>
+  </si>
+  <si>
+    <t>440688319</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCG2CL6EUjG8TVT1Tpl9nJdg</t>
+  </si>
+  <si>
+    <t>Kevin Abroad</t>
+  </si>
+  <si>
+    <t>492489</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDW9XhmMmy85Pa3MFmI7lkQ</t>
+  </si>
+  <si>
+    <t>JoshEsl.com</t>
+  </si>
+  <si>
+    <t>212388</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUZFCQfhZ6NrZwpUeFel6CA</t>
+  </si>
+  <si>
+    <t>LanguageGirl</t>
+  </si>
+  <si>
+    <t>962506</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCZl9AmByjGIToQ7BjZ-7CtQ</t>
+  </si>
+  <si>
+    <t>Dalibor Truhlar</t>
+  </si>
+  <si>
+    <t>133584986</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCPKCf06mjHRFrNwWRVRqWJg</t>
+  </si>
+  <si>
+    <t>Fingtam Languages</t>
+  </si>
+  <si>
+    <t>2231687</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDqVCYtJ5ezoRBP94ltrDwg</t>
+  </si>
+  <si>
+    <t>The Intrepid Guide</t>
+  </si>
+  <si>
+    <t>2773767</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC3KTMHydAAqxTcjAquOQQoA</t>
+  </si>
+  <si>
+    <t>LetThemTalkTV</t>
+  </si>
+  <si>
+    <t>26369604</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCZHmFjS0jiocsfZBEANGhpw</t>
+  </si>
+  <si>
+    <t>Beyond Language Learning</t>
+  </si>
+  <si>
+    <t>36295</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCviZlOCIohMyxwmNoXu4C-g</t>
+  </si>
+  <si>
+    <t>Lois Lin</t>
+  </si>
+  <si>
+    <t>82599</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDgp2VJXpEyZMpSs2nY5HqQ</t>
+  </si>
+  <si>
+    <t>Hashem Al-Ghaili</t>
+  </si>
+  <si>
+    <t>82279250</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCfAInEvJMxEq_pCb9vehdCw</t>
+  </si>
+  <si>
+    <t>Luca Lampariello</t>
+  </si>
+  <si>
+    <t>12955438</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCOJ88yDbqOkAZXNuuYpAAAA</t>
+  </si>
+  <si>
+    <t>Red Gregory</t>
+  </si>
+  <si>
+    <t>1895691</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC4GFX14CvT9VFiAh0fH3Nhw</t>
+  </si>
+  <si>
     <t>Nathaniel Drew</t>
   </si>
   <si>
-    <t>1580000</t>
-  </si>
-  <si>
-    <t>84043759</t>
+    <t>84072288</t>
   </si>
   <si>
     <t>https://www.youtube.com/channel/UCrdWRLq10OHuy7HmSckV3Vg</t>
-  </si>
-  <si>
-    <t>Learn Dutch with DutchPod101.com</t>
-  </si>
-  <si>
-    <t>139000</t>
-  </si>
-  <si>
-    <t>9552882</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCY0BCa9cKhn-V1W52ALrR5Q</t>
-  </si>
-  <si>
-    <t>TED</t>
-  </si>
-  <si>
-    <t>21500000</t>
-  </si>
-  <si>
-    <t>2349211567</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCAuUUnT6oDeKwE6v1NGQxug</t>
-  </si>
-  <si>
-    <t>Lindie Botes</t>
-  </si>
-  <si>
-    <t>308000</t>
-  </si>
-  <si>
-    <t>28353413</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCjVwBKqRh8ckPWhfD5UDKcg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +1070,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,7 +1089,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -125,23 +1105,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,10 +1147,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -191,69 +1188,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -277,54 +1276,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -334,7 +1332,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -343,7 +1341,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,7 +1350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,10 +1358,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -392,7 +1390,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -405,13 +1403,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -429,105 +1426,1633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" s="2">
+        <v>1250000</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="2">
+        <v>37900</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2">
+        <v>285000</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2">
+        <v>1060000</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B8" s="2">
+        <v>4160</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>66800</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>61800</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2">
+        <v>194000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>459000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5060000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2">
+        <v>280000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>53500</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1620</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1850</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2">
+        <v>21500</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>184000</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>34000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9310</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2">
+        <v>17300</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1240000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2">
+        <v>558000</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2">
+        <v>934</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2">
+        <v>75000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2">
+        <v>292000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1250000</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6290000</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="2">
+        <v>52700</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+      <c r="A35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2">
+        <v>76900</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17100000</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2">
+        <v>337000</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+      <c r="A38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2">
+        <v>35400000</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5370000</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2">
+        <v>55700</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+      <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2">
+        <v>73600</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2">
+        <v>368000</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1690000</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8030</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2">
+        <v>136000</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1030000</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
+      <c r="A47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2">
+        <v>308000</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7420</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2">
+        <v>58700</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2">
+        <v>296000</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2">
+        <v>671000</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+      <c r="A52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2770000</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+      <c r="A53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9870</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+      <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="2">
+        <v>113000</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="2">
+        <v>62800</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2">
+        <v>97700</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="2">
+        <v>243000</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+      <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="2">
+        <v>109000</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
+      <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="2">
+        <v>381000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
+      <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3300</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
+      <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1790</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
+      <c r="A64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="2">
+        <v>875000</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5">
+      <c r="A65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="2">
+        <v>68600</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="2">
+        <v>511000</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5">
+      <c r="A67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6760000</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5">
+      <c r="A68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1270000</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5">
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="2">
+        <v>69800</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5">
+      <c r="A70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2">
+        <v>13500000</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5">
+      <c r="A71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="2">
+        <v>21500000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5">
+      <c r="A72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="2">
+        <v>852000</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5">
+      <c r="A73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="2">
+        <v>55500</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5">
+      <c r="A74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4940000</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5">
+      <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="2">
+        <v>7050</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5">
+      <c r="A76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5">
+      <c r="A77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="2">
+        <v>37500</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5">
+      <c r="A78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="2">
+        <v>323000</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5">
+      <c r="A79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="2">
+        <v>242000</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5">
+      <c r="A80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="2">
+        <v>274000</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="2">
+        <v>253000</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="2">
+        <v>463000</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="2">
+        <v>59800</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1060</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="2">
+        <v>15400</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="2">
+        <v>133000</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="2">
+        <v>178000</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3850000</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="2">
+        <v>223000</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="2">
+        <v>137000</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="2">
+        <v>33600</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="2">
+        <v>191000</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1380</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" s="2">
+        <v>114000</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2770</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="2">
+        <v>101000</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="2">
+        <v>785000</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1370000</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="2">
+        <v>54300</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2640000</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="2">
+        <v>190000</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="2">
+        <v>932000</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="2">
+        <v>6430</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2160</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B105" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5">
+      <c r="A106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B106" s="2">
+        <v>118000</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5">
+      <c r="A107" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" s="2">
+        <v>37200</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5">
+      <c r="A108" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" s="2">
+        <v>26400</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5">
+      <c r="A109" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="2">
+        <v>465000</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5">
+      <c r="A110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5">
+      <c r="A111" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5">
+      <c r="A112" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="2">
+        <v>503000</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5">
+      <c r="A113" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" s="2">
+        <v>209000</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5">
+      <c r="A114" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B114" s="2">
+        <v>34900</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5">
+      <c r="A115" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1580000</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>345</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>